--- a/natmiOut/OldD4/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H2">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I2">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J2">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N2">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O2">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P2">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q2">
-        <v>582.5107449760161</v>
+        <v>661.6660077859083</v>
       </c>
       <c r="R2">
-        <v>582.5107449760161</v>
+        <v>5954.994070073175</v>
       </c>
       <c r="S2">
-        <v>0.1030145460715679</v>
+        <v>0.1012834689883243</v>
       </c>
       <c r="T2">
-        <v>0.1030145460715679</v>
+        <v>0.1066573232213329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H3">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I3">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J3">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N3">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P3">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q3">
-        <v>50.70263241920365</v>
+        <v>61.91066037152699</v>
       </c>
       <c r="R3">
-        <v>50.70263241920365</v>
+        <v>557.1959433437429</v>
       </c>
       <c r="S3">
-        <v>0.008966544751913339</v>
+        <v>0.009476875607935342</v>
       </c>
       <c r="T3">
-        <v>0.008966544751913339</v>
+        <v>0.009979695550914099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H4">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I4">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J4">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N4">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O4">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P4">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q4">
-        <v>8.173112809548899</v>
+        <v>9.201445023679666</v>
       </c>
       <c r="R4">
-        <v>8.173112809548899</v>
+        <v>82.81300521311699</v>
       </c>
       <c r="S4">
-        <v>0.001445380215436305</v>
+        <v>0.001408496523528797</v>
       </c>
       <c r="T4">
-        <v>0.001445380215436305</v>
+        <v>0.001483227919291079</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H5">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I5">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J5">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N5">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O5">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P5">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q5">
-        <v>4.310510998377552</v>
+        <v>7.331383385339</v>
       </c>
       <c r="R5">
-        <v>4.310510998377552</v>
+        <v>65.982450468051</v>
       </c>
       <c r="S5">
-        <v>0.0007622955244416089</v>
+        <v>0.001122239820412175</v>
       </c>
       <c r="T5">
-        <v>0.0007622955244416089</v>
+        <v>0.001181783132559867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H6">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I6">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J6">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N6">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O6">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P6">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q6">
-        <v>29.44051093525734</v>
+        <v>32.066745193181</v>
       </c>
       <c r="R6">
-        <v>29.44051093525734</v>
+        <v>192.400471159086</v>
       </c>
       <c r="S6">
-        <v>0.005206429059493892</v>
+        <v>0.00490856588386346</v>
       </c>
       <c r="T6">
-        <v>0.005206429059493892</v>
+        <v>0.003446001624666474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H7">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I7">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J7">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N7">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O7">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P7">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q7">
-        <v>966.5017728863069</v>
+        <v>1117.875440417689</v>
       </c>
       <c r="R7">
-        <v>966.5017728863069</v>
+        <v>10060.8789637592</v>
       </c>
       <c r="S7">
-        <v>0.1709217250839689</v>
+        <v>0.1711170003748916</v>
       </c>
       <c r="T7">
-        <v>0.1709217250839689</v>
+        <v>0.1801960517343031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H8">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I8">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J8">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N8">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P8">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q8">
-        <v>84.12580290717337</v>
+        <v>104.597192412768</v>
       </c>
       <c r="R8">
-        <v>84.12580290717337</v>
+        <v>941.3747317149119</v>
       </c>
       <c r="S8">
-        <v>0.0148772902030253</v>
+        <v>0.01601104842827623</v>
       </c>
       <c r="T8">
-        <v>0.0148772902030253</v>
+        <v>0.01686055566998728</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H9">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I9">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J9">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N9">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O9">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P9">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q9">
-        <v>13.56082799941147</v>
+        <v>15.54571231903644</v>
       </c>
       <c r="R9">
-        <v>13.56082799941147</v>
+        <v>139.911410871328</v>
       </c>
       <c r="S9">
-        <v>0.002398174716539346</v>
+        <v>0.002379635122613096</v>
       </c>
       <c r="T9">
-        <v>0.002398174716539346</v>
+        <v>0.002505892767660233</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H10">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I10">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J10">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N10">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O10">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P10">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q10">
-        <v>7.151999440198071</v>
+        <v>12.38626940830933</v>
       </c>
       <c r="R10">
-        <v>7.151999440198071</v>
+        <v>111.476424674784</v>
       </c>
       <c r="S10">
-        <v>0.001264800661945638</v>
+        <v>0.001896008437391947</v>
       </c>
       <c r="T10">
-        <v>0.001264800661945638</v>
+        <v>0.001996606028182142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H11">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I11">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J11">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N11">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O11">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P11">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q11">
-        <v>48.84769295504837</v>
+        <v>54.17631627403733</v>
       </c>
       <c r="R11">
-        <v>48.84769295504837</v>
+        <v>325.057897644224</v>
       </c>
       <c r="S11">
-        <v>0.008638506602337125</v>
+        <v>0.008292953219108936</v>
       </c>
       <c r="T11">
-        <v>0.008638506602337125</v>
+        <v>0.005821971415373875</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H12">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I12">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J12">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N12">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O12">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P12">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q12">
-        <v>1283.355911865272</v>
+        <v>1551.960563113889</v>
       </c>
       <c r="R12">
-        <v>1283.355911865272</v>
+        <v>13967.645068025</v>
       </c>
       <c r="S12">
-        <v>0.2269560310248137</v>
+        <v>0.2375638882995305</v>
       </c>
       <c r="T12">
-        <v>0.2269560310248137</v>
+        <v>0.2501684497299412</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H13">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I13">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J13">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N13">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P13">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q13">
-        <v>111.70527517908</v>
+        <v>145.213600521</v>
       </c>
       <c r="R13">
-        <v>111.70527517908</v>
+        <v>1306.922404689</v>
       </c>
       <c r="S13">
-        <v>0.01975460249552358</v>
+        <v>0.02222834032878188</v>
       </c>
       <c r="T13">
-        <v>0.01975460249552358</v>
+        <v>0.02340772193924342</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H14">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I14">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J14">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N14">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O14">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P14">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q14">
-        <v>18.00655650207487</v>
+        <v>21.58230834344444</v>
       </c>
       <c r="R14">
-        <v>18.00655650207487</v>
+        <v>194.240775091</v>
       </c>
       <c r="S14">
-        <v>0.00318438288112549</v>
+        <v>0.003303677432537833</v>
       </c>
       <c r="T14">
-        <v>0.00318438288112549</v>
+        <v>0.003478962512449394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H15">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I15">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J15">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N15">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O15">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P15">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q15">
-        <v>9.496682800513616</v>
+        <v>17.19601393033333</v>
       </c>
       <c r="R15">
-        <v>9.496682800513616</v>
+        <v>154.764125373</v>
       </c>
       <c r="S15">
-        <v>0.001679447935197927</v>
+        <v>0.002632252410039555</v>
       </c>
       <c r="T15">
-        <v>0.001679447935197927</v>
+        <v>0.002771913313218819</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H16">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I16">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J16">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N16">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O16">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P16">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q16">
-        <v>64.86172844528784</v>
+        <v>75.21366269633333</v>
       </c>
       <c r="R16">
-        <v>64.86172844528784</v>
+        <v>451.281976178</v>
       </c>
       <c r="S16">
-        <v>0.01147052062272901</v>
+        <v>0.0115132114746134</v>
       </c>
       <c r="T16">
-        <v>0.01147052062272901</v>
+        <v>0.008082716293382869</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H17">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I17">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J17">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N17">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O17">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P17">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q17">
-        <v>1498.740156415638</v>
+        <v>1644.084872452075</v>
       </c>
       <c r="R17">
-        <v>1498.740156415638</v>
+        <v>14796.76385206867</v>
       </c>
       <c r="S17">
-        <v>0.2650458179938715</v>
+        <v>0.2516656700415723</v>
       </c>
       <c r="T17">
-        <v>0.2650458179938715</v>
+        <v>0.2650184376725048</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H18">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I18">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J18">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N18">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O18">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P18">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q18">
-        <v>130.4526515571325</v>
+        <v>153.833473327347</v>
       </c>
       <c r="R18">
-        <v>130.4526515571325</v>
+        <v>1384.501259946123</v>
       </c>
       <c r="S18">
-        <v>0.02306999621877142</v>
+        <v>0.02354781361257105</v>
       </c>
       <c r="T18">
-        <v>0.02306999621877142</v>
+        <v>0.02479720326247139</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H19">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I19">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J19">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N19">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O19">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P19">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q19">
-        <v>21.0285775433899</v>
+        <v>22.863433197593</v>
       </c>
       <c r="R19">
-        <v>21.0285775433899</v>
+        <v>205.770898778337</v>
       </c>
       <c r="S19">
-        <v>0.003718814440499751</v>
+        <v>0.003499783576587039</v>
       </c>
       <c r="T19">
-        <v>0.003718814440499751</v>
+        <v>0.003685473570971261</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H20">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I20">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J20">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N20">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O20">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P20">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q20">
-        <v>11.09050087686485</v>
+        <v>18.216768545079</v>
       </c>
       <c r="R20">
-        <v>11.09050087686485</v>
+        <v>163.950916905711</v>
       </c>
       <c r="S20">
-        <v>0.001961307878678869</v>
+        <v>0.002788502794902508</v>
       </c>
       <c r="T20">
-        <v>0.001961307878678869</v>
+        <v>0.002936453963023247</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H21">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I21">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J21">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N21">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O21">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P21">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q21">
-        <v>75.74740267817825</v>
+        <v>79.67834233664099</v>
       </c>
       <c r="R21">
-        <v>75.74740267817825</v>
+        <v>478.070054019846</v>
       </c>
       <c r="S21">
-        <v>0.01339560578116731</v>
+        <v>0.0121966351907645</v>
       </c>
       <c r="T21">
-        <v>0.01339560578116731</v>
+        <v>0.0085625059696169</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H22">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I22">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J22">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.8235269322309</v>
+        <v>47.08665833333333</v>
       </c>
       <c r="N22">
-        <v>43.8235269322309</v>
+        <v>141.259975</v>
       </c>
       <c r="O22">
-        <v>0.8628031097412954</v>
+        <v>0.8568847006715773</v>
       </c>
       <c r="P22">
-        <v>0.8628031097412954</v>
+        <v>0.8689126983340025</v>
       </c>
       <c r="Q22">
-        <v>547.7371826267096</v>
+        <v>622.2810080928791</v>
       </c>
       <c r="R22">
-        <v>547.7371826267096</v>
+        <v>3733.686048557275</v>
       </c>
       <c r="S22">
-        <v>0.09686498956707344</v>
+        <v>0.09525467296725862</v>
       </c>
       <c r="T22">
-        <v>0.09686498956707344</v>
+        <v>0.06687243597592049</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H23">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I23">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J23">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.81446728068417</v>
+        <v>4.405797</v>
       </c>
       <c r="N23">
-        <v>3.81446728068417</v>
+        <v>13.217391</v>
       </c>
       <c r="O23">
-        <v>0.07509971155151808</v>
+        <v>0.0801768521528777</v>
       </c>
       <c r="P23">
-        <v>0.07509971155151808</v>
+        <v>0.08130228593588212</v>
       </c>
       <c r="Q23">
-        <v>47.67588799447077</v>
+        <v>58.22549094913649</v>
       </c>
       <c r="R23">
-        <v>47.67588799447077</v>
+        <v>349.352945694819</v>
       </c>
       <c r="S23">
-        <v>0.008431277882284446</v>
+        <v>0.008912774175313195</v>
       </c>
       <c r="T23">
-        <v>0.008431277882284446</v>
+        <v>0.006257109513265932</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H24">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I24">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J24">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.614880725237394</v>
+        <v>0.6548096666666666</v>
       </c>
       <c r="N24">
-        <v>0.614880725237394</v>
+        <v>1.964429</v>
       </c>
       <c r="O24">
-        <v>0.01210584904942062</v>
+        <v>0.01191624984823596</v>
       </c>
       <c r="P24">
-        <v>0.01210584904942062</v>
+        <v>0.01208351695570926</v>
       </c>
       <c r="Q24">
-        <v>7.685210654400728</v>
+        <v>8.653738317926832</v>
       </c>
       <c r="R24">
-        <v>7.685210654400728</v>
+        <v>51.922429907561</v>
       </c>
       <c r="S24">
-        <v>0.001359096795819731</v>
+        <v>0.001324657192969197</v>
       </c>
       <c r="T24">
-        <v>0.001359096795819731</v>
+        <v>0.000929960185337294</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H25">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I25">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J25">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.324288944810544</v>
+        <v>0.521729</v>
       </c>
       <c r="N25">
-        <v>0.324288944810544</v>
+        <v>1.565187</v>
       </c>
       <c r="O25">
-        <v>0.006384641529878279</v>
+        <v>0.009494443093240277</v>
       </c>
       <c r="P25">
-        <v>0.006384641529878279</v>
+        <v>0.009627715561802291</v>
       </c>
       <c r="Q25">
-        <v>4.053190727031098</v>
+        <v>6.894990206630499</v>
       </c>
       <c r="R25">
-        <v>4.053190727031098</v>
+        <v>41.369941239783</v>
       </c>
       <c r="S25">
-        <v>0.0007167895296142363</v>
+        <v>0.001055439630494092</v>
       </c>
       <c r="T25">
-        <v>0.0007167895296142363</v>
+        <v>0.000740959124818216</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H26">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I26">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J26">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.21487248947315</v>
+        <v>2.281991</v>
       </c>
       <c r="N26">
-        <v>2.21487248947315</v>
+        <v>4.563982</v>
       </c>
       <c r="O26">
-        <v>0.04360668812788766</v>
+        <v>0.04152775423406879</v>
       </c>
       <c r="P26">
-        <v>0.04360668812788766</v>
+        <v>0.0280737832126037</v>
       </c>
       <c r="Q26">
-        <v>27.68303014810935</v>
+        <v>30.1580046281095</v>
       </c>
       <c r="R26">
-        <v>27.68303014810935</v>
+        <v>120.632018512438</v>
       </c>
       <c r="S26">
-        <v>0.004895626062160329</v>
+        <v>0.004616388465718491</v>
       </c>
       <c r="T26">
-        <v>0.004895626062160329</v>
+        <v>0.00216058790956358</v>
       </c>
     </row>
   </sheetData>
